--- a/Question_Set2/Programming skills/Cryptography.xlsx
+++ b/Question_Set2/Programming skills/Cryptography.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Alice wants to securely send a confidential document to Bob via email. What steps should Alice take to ensure that the document is exchanged securely, and how should Bob decrypt and verify the document?', 'ques_type': 2, 'options': ['Alice should encrypt the document using Bob’s public key and send it to Bob Bob should decrypt it using his private key', 'Alice should encrypt the document using her public key and send it to Bob Bob should decrypt it using Alice’s private key', 'Alice should encrypt the document using Bob’s private key and send it to Bob Bob should decrypt it using his public key', 'Alice should encrypt the document using her private key and send it to Bob Bob should decrypt it using Alice’s public key'], 'score': 'Alice should encrypt the document using Bob’s public key and send it to Bob Bob should decrypt it using his private key'}, {'title': 'Your insurance company keeps customer data safe by storing it in encrypted form using AES-256 bit encryption. Now you need to send your employees the secret AES key to allow them to decrypt customer data. How should you send your employees the secret AES key?', 'ques_type': 2, 'options': ['Put the secret key in encrypted USBs and give a USB to each of your employees.', 'Give each employee a unique public/private key pair, encrypt the AES secret key using each employee’s private key, and email the encrypted key to them.', "Give each employee a unique public/private key pair, encrypt the AES secret key using each employee's public key and email the encrypted key to them.", 'Give each employee a unique public/private key pair, encrypt the AES secret key using your public key, and email the encrypted key to them.'], 'score': "Give each employee a unique public/private key pair, encrypt the AES secret key using each employee's public key and email the encrypted key to them."}, {'title': 'Each employee in your company has a unique public/private key pair using RSA to securely exchange documents. Now you want to incorporate digital signatures into the documents your employees send. True or false: You will have to generate a new set of public/private key pairs for each of your employees.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'You receive a document along with its hash pasted on the back of the document over a trusted, secure channel. You calculate the hash of the document you received, and it matches the hash on the back of the document.  What does this tell you about the document?', 'ques_type': 2, 'options': ['The document has been sent by the person who claims to have sent it', 'The document has not been tampered with', 'The document has reached the correct recipient', 'The document has been tampered with'], 'score': 'The document has not been tampered with'}]</t>
+    <t>questions = [
+    {
+        "title": "Alice wants to securely send a confidential document to Bob via email. What steps should Alice take to ensure that the document is exchanged securely, and how should Bob decrypt and verify the document?",
+        "ques_type": 2,
+        "options": [
+            "Alice should encrypt the document using Bob\u2019s public key and send it to Bob Bob should decrypt it using his private key",
+            "Alice should encrypt the document using her public key and send it to Bob Bob should decrypt it using Alice\u2019s private key",
+            "Alice should encrypt the document using Bob\u2019s private key and send it to Bob Bob should decrypt it using his public key",
+            "Alice should encrypt the document using her private key and send it to Bob Bob should decrypt it using Alice\u2019s public key"
+        ],
+        "score": "Alice should encrypt the document using Bob\u2019s public key and send it to Bob Bob should decrypt it using his private key"
+    },
+    {
+        "title": "Your insurance company keeps customer data safe by storing it in encrypted form using AES-256 bit encryption. Now you need to send your employees the secret AES key to allow them to decrypt customer data. How should you send your employees the secret AES key?",
+        "ques_type": 2,
+        "options": [
+            "Put the secret key in encrypted USBs and give a USB to each of your employees.",
+            "Give each employee a unique public/private key pair, encrypt the AES secret key using each employee\u2019s private key, and email the encrypted key to them.",
+            "Give each employee a unique public/private key pair, encrypt the AES secret key using each employee's public key and email the encrypted key to them.",
+            "Give each employee a unique public/private key pair, encrypt the AES secret key using your public key, and email the encrypted key to them."
+        ],
+        "score": "Give each employee a unique public/private key pair, encrypt the AES secret key using each employee's public key and email the encrypted key to them."
+    },
+    {
+        "title": "Each employee in your company has a unique public/private key pair using RSA to securely exchange documents. Now you want to incorporate digital signatures into the documents your employees send. True or false: You will have to generate a new set of public/private key pairs for each of your employees.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "You receive a document along with its hash pasted on the back of the document over a trusted, secure channel. You calculate the hash of the document you received, and it matches the hash on the back of the document.  What does this tell you about the document?",
+        "ques_type": 2,
+        "options": [
+            "The document has been sent by the person who claims to have sent it",
+            "The document has not been tampered with",
+            "The document has reached the correct recipient",
+            "The document has been tampered with"
+        ],
+        "score": "The document has not been tampered with"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
